--- a/data/hotels_by_city/Houston/Houston_shard_394.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_394.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="380">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56062-d9139819-Reviews-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Katy-Hotels-Hyatt-Place-HoustonKaty.h12959834.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1020 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r599000971-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>9139819</t>
+  </si>
+  <si>
+    <t>599000971</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super clean and the rooms were very clean and comfortable beds!  The breakfast looked great!  The staff was very professional and courteous.  Plenty of parking.  They had a bar and 24 hr food service.  Clean pool.  </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r598633488-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>598633488</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Worse place ever</t>
+  </si>
+  <si>
+    <t>I would never stay here even if they were for free. I stayed for 3weeks they cleaned my room 2xs only i repeatedly called front desk and they would tell me housekeeping is on their way...but relly weren't on top of that one of my pillows had a blood stained i told them to change everything again i left my room for a few hrs when i came back they had fix the beds and changed the towels to my surprise i check the pillows and they had folded the pillow into the inside part so i wouldn't see the blood stained they didn't change my trash either ... i put the trash outside my room cuz im sick of this horrible serviceMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I would never stay here even if they were for free. I stayed for 3weeks they cleaned my room 2xs only i repeatedly called front desk and they would tell me housekeeping is on their way...but relly weren't on top of that one of my pillows had a blood stained i told them to change everything again i left my room for a few hrs when i came back they had fix the beds and changed the towels to my surprise i check the pillows and they had folded the pillow into the inside part so i wouldn't see the blood stained they didn't change my trash either ... i put the trash outside my room cuz im sick of this horrible serviceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r598261565-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>598261565</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Excellent value for money</t>
+  </si>
+  <si>
+    <t>Stayed for one of my client visits here in Katy. Room, Internet &amp; Office Staff were all excellent. Free Bottled Water was available daily during the whole  stay here. Security around the clock and additional night guard , didn’t have to worry about my personal vehicle that I used for the trip. Nothing sneaky or wierd observed during my stay. A decent gym and an outdoor pool for luxury.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r590382401-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>590382401</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Visiting Texas</t>
+  </si>
+  <si>
+    <t>Almost to our destination, we stayed at the Hyatt because it was right off the highway and convenient for our trip. The hotel was clean and welcoming. The staff was friendly and helpful in recommending several places for supper. The rooms were very nice and the breakfast had multiple choices for hot and cold items. We would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r587040411-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>587040411</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Super friendly staff and very nice clean hotel! and it's pet friendly!</t>
+  </si>
+  <si>
+    <t>My husband, our husky and I stayed at this Hyatt for 5 days; we were welcomed by the most attentive, friendly, courteous staff. The hotel is super nice and clean.  I have no complaints except for the breakfast food.  It needs to be improved.  I still give it a 5 star for my overall experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r585429108-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>585429108</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Business in Houston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s a nice clean place where the staff is really friendly. I guess the price is ok for that area. If someone is interest dogs are allowed. You are within 2 min on the highway and ready to go every direction  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r578153219-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>578153219</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outstanding hotel with a great price </t>
+  </si>
+  <si>
+    <t>From check-in to check-out the service at this hotel was outstanding. The staff is very friendly, courteous, and does what they can to meet  your needs. The rooms are very modern and spacious and the layout of the bathroom is very nice. This is a new property so the condition is very nice with lots of modern conveniences. Some of the modern conveniences include plenty of outlets by the bed and HDMI connections on the TV to hook up portable devices. The limited room service available is fairly decent providing high-quality microwavable meals. The fitness center has all the necessary equipment to get a good workout. The fitness center looks out towards the pool so if you are a family traveling with children you could have them play around in the pool while watching them from the gym; which also has an entrance and exit to the pool area.  If you have business or family in Katy, Texas this is a great place and at a very reasonable price. If your travels bring you to Houston and don’t mind fighting the 30 to 45 minute traffic time that takes to get to downtown Houston this would also be a great alternative to some of the more expensive hotels located near and around the center of downtown Houston. Outstanding hotel for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>From check-in to check-out the service at this hotel was outstanding. The staff is very friendly, courteous, and does what they can to meet  your needs. The rooms are very modern and spacious and the layout of the bathroom is very nice. This is a new property so the condition is very nice with lots of modern conveniences. Some of the modern conveniences include plenty of outlets by the bed and HDMI connections on the TV to hook up portable devices. The limited room service available is fairly decent providing high-quality microwavable meals. The fitness center has all the necessary equipment to get a good workout. The fitness center looks out towards the pool so if you are a family traveling with children you could have them play around in the pool while watching them from the gym; which also has an entrance and exit to the pool area.  If you have business or family in Katy, Texas this is a great place and at a very reasonable price. If your travels bring you to Houston and don’t mind fighting the 30 to 45 minute traffic time that takes to get to downtown Houston this would also be a great alternative to some of the more expensive hotels located near and around the center of downtown Houston. Outstanding hotel for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r574426782-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>574426782</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Incompetent</t>
+  </si>
+  <si>
+    <t>Arrived at 3:45 for a 3:00 check in.  At 4:OO. still waiting for room.  No one else is in the lobby.  We were told the reason our room was not ready was that the hotel was full the day before.  We requested another room but management would not accomodate.  Very dissapointed that my time and business is not considered of value to the establishment.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r573033921-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>573033921</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>Great base for Houston</t>
+  </si>
+  <si>
+    <t>Stayed here in early April 2018 and overall I was really impressed.  The room was a nice size, with two (comfy) twin beds and a lounge area, plus a nice-sized bathroom.  The breakfast was a nice bonus.  The selection isn't vast, but for free it's a great little bonus to start your day with.  The area its in seems very nice, and is about as a short of a drive into central Houston as you could likely expect (takes about 20 minutes, traffic-depending).  Loads of shops and restaurants nearby.
+There were a couple of minor things that pulled this down from a five-star review:
+Housekeeping don't seem to be terribly efficient.  We had to ask for our coffee and shampoo to be topped up on the third day after no-one had done it the preceding days.  Then on the last day we were taking our time going out and they knocked while we were still in the room.  I asked if they could come back in half an hour, since we'd be gone by then.  Only they never came back!  When we got back at the end of the day the room was the same as we'd left it.  We're fairly tidy, so it wasn't a disaster, but I was a bit disappointed.
+The room doors.  This seems to be a feature of hotels in the US, but man those doors do slam!  And people don't worry about the fact...Stayed here in early April 2018 and overall I was really impressed.  The room was a nice size, with two (comfy) twin beds and a lounge area, plus a nice-sized bathroom.  The breakfast was a nice bonus.  The selection isn't vast, but for free it's a great little bonus to start your day with.  The area its in seems very nice, and is about as a short of a drive into central Houston as you could likely expect (takes about 20 minutes, traffic-depending).  Loads of shops and restaurants nearby.There were a couple of minor things that pulled this down from a five-star review:Housekeeping don't seem to be terribly efficient.  We had to ask for our coffee and shampoo to be topped up on the third day after no-one had done it the preceding days.  Then on the last day we were taking our time going out and they knocked while we were still in the room.  I asked if they could come back in half an hour, since we'd be gone by then.  Only they never came back!  When we got back at the end of the day the room was the same as we'd left it.  We're fairly tidy, so it wasn't a disaster, but I was a bit disappointed.The room doors.  This seems to be a feature of hotels in the US, but man those doors do slam!  And people don't worry about the fact that they slam.  Soft-closing doors would be a nice add.But great spot and overall a really nice hotel for a very reasonable price.  If we come back to Houston (which is a lovely city) we'd certainly look to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here in early April 2018 and overall I was really impressed.  The room was a nice size, with two (comfy) twin beds and a lounge area, plus a nice-sized bathroom.  The breakfast was a nice bonus.  The selection isn't vast, but for free it's a great little bonus to start your day with.  The area its in seems very nice, and is about as a short of a drive into central Houston as you could likely expect (takes about 20 minutes, traffic-depending).  Loads of shops and restaurants nearby.
+There were a couple of minor things that pulled this down from a five-star review:
+Housekeeping don't seem to be terribly efficient.  We had to ask for our coffee and shampoo to be topped up on the third day after no-one had done it the preceding days.  Then on the last day we were taking our time going out and they knocked while we were still in the room.  I asked if they could come back in half an hour, since we'd be gone by then.  Only they never came back!  When we got back at the end of the day the room was the same as we'd left it.  We're fairly tidy, so it wasn't a disaster, but I was a bit disappointed.
+The room doors.  This seems to be a feature of hotels in the US, but man those doors do slam!  And people don't worry about the fact...Stayed here in early April 2018 and overall I was really impressed.  The room was a nice size, with two (comfy) twin beds and a lounge area, plus a nice-sized bathroom.  The breakfast was a nice bonus.  The selection isn't vast, but for free it's a great little bonus to start your day with.  The area its in seems very nice, and is about as a short of a drive into central Houston as you could likely expect (takes about 20 minutes, traffic-depending).  Loads of shops and restaurants nearby.There were a couple of minor things that pulled this down from a five-star review:Housekeeping don't seem to be terribly efficient.  We had to ask for our coffee and shampoo to be topped up on the third day after no-one had done it the preceding days.  Then on the last day we were taking our time going out and they knocked while we were still in the room.  I asked if they could come back in half an hour, since we'd be gone by then.  Only they never came back!  When we got back at the end of the day the room was the same as we'd left it.  We're fairly tidy, so it wasn't a disaster, but I was a bit disappointed.The room doors.  This seems to be a feature of hotels in the US, but man those doors do slam!  And people don't worry about the fact that they slam.  Soft-closing doors would be a nice add.But great spot and overall a really nice hotel for a very reasonable price.  If we come back to Houston (which is a lovely city) we'd certainly look to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r560064640-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>560064640</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>Well we stayed here again</t>
+  </si>
+  <si>
+    <t>We love this place so clean and nice. The rooms are comfortable with a sitting area and King Bed. Very Quiet. nice walk in Shower. Breakfast is very good. Bacon!!! Great coffee and very clean breakfast area. good selection. Staff very nice. Didn't get the young mans name but remembered us from a year ago! Cool.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r555573239-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>555573239</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Good base to explore from</t>
+  </si>
+  <si>
+    <t>We chose this hotel due to its proximity to the home of family members that we were visiting. It was very straight forward to find with easy access to the freeway.It was a pleasant hotel though with something of a strange smell on entering reception. Staff were pleasant, breakfast was fine with slightly different choices each day. Though the coffee was empty more often than not. We went into the bar just one evening for a drink and were the only ones there so not a great atmosphere.Room was very good with  really comfortable bed and pillows. It is this that has bumped our rating up to four - would have been three otherwise. Bathroom lovely with a huge shower cubicle.We had a high floor room which made for far reaching though not stunning views.Plenty of free parking at the hotel.Several places to eat around it, though we did not sample these.All in all we would stay again and it served its purpose as  a pleasant base rather than a luxury hotel experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>We chose this hotel due to its proximity to the home of family members that we were visiting. It was very straight forward to find with easy access to the freeway.It was a pleasant hotel though with something of a strange smell on entering reception. Staff were pleasant, breakfast was fine with slightly different choices each day. Though the coffee was empty more often than not. We went into the bar just one evening for a drink and were the only ones there so not a great atmosphere.Room was very good with  really comfortable bed and pillows. It is this that has bumped our rating up to four - would have been three otherwise. Bathroom lovely with a huge shower cubicle.We had a high floor room which made for far reaching though not stunning views.Plenty of free parking at the hotel.Several places to eat around it, though we did not sample these.All in all we would stay again and it served its purpose as  a pleasant base rather than a luxury hotel experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r554497083-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>554497083</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>22 Night Stay - EXCELLENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel staff were all very kind and accommodating.  Maid service was EXCELLENT.  Hotel accommodated our family pet and were very kind towards her as well.  Security in and around the hotel was some of the best I’ve ever seen in a hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r549056265-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>549056265</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>Great hotel!!</t>
+  </si>
+  <si>
+    <t>Great hotel!! The room was clean and looked excellent! The front desk was very helpful and friendly!! The breakfast had plenty of options and the food tasted great! I would recommend this hotel to any and everybody</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r549024864-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>549024864</t>
+  </si>
+  <si>
+    <t>First time at a Hyatt Place</t>
+  </si>
+  <si>
+    <t>This was our first time staying at a Hyatt since retiring.  We always thought they were too expensive.  Stayed two nights in a 2 queen with a couch well within our $100 a night budget.  Staff was so helpful and seemed genuinely friendly.Two things were very different from where we usually stay.  Breakfast did not have pastries nor any way to grab breakfast and go. The other is just a comment that the pillows are very, very flat. Will try another Hyatt Place as we travel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r548777686-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>548777686</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Granny from. MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This trip was trouble free, the rooms were clean. The staff was excellent. I traveled to Katy to pick up my grandson for Christmas. Also, my younger grandson traveled with me,!the room was spacious and comfortable. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r546903319-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>546903319</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Favorite location in Katy, Tx</t>
+  </si>
+  <si>
+    <t>Management and staff very friendly and caring.  Always remember us.  Hotel very clean and rooms comfortable and quiet.  The breakfast items are varied and tasty, and refilled promptly.  There is a different menu each day</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r545191366-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>545191366</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>Great Staff!</t>
+  </si>
+  <si>
+    <t>Kaitlin and Aaron are amazing staff members and they made sure I enjoyed my stay.  Rooms are great and breakfast had a good variety.  Convenient right off the highway.  Bathrooms clean.  Security at all times to watch the parking lot.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r543225123-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>543225123</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>Outstanding Hotel</t>
+  </si>
+  <si>
+    <t>The Hotel is new, clean and modern.  There are multiple outlets for electronics including USB ports in the couch.  The room was well appointed with a modern design.  The bed was comfortable and the couch and refrigerator were a nice touch.  The bathroom was clean and easy to get around.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r539864615-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>539864615</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>I was extremely upset. Even though I had documentation, confirmation with pin number, the staff didn't care about us having reservations and try to accommodate us at all. They actually gave me a phone number and told me to try and figure out the problem. Everything kept being put off to others, 4 in total. They all just walked away and left us there. They said to us that they could give us a room but not for the price we originally booked it for. We were there for almost an hour and it was very unacceptable. I could go on however, just thinking about this experience it only makes me more upset.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was extremely upset. Even though I had documentation, confirmation with pin number, the staff didn't care about us having reservations and try to accommodate us at all. They actually gave me a phone number and told me to try and figure out the problem. Everything kept being put off to others, 4 in total. They all just walked away and left us there. They said to us that they could give us a room but not for the price we originally booked it for. We were there for almost an hour and it was very unacceptable. I could go on however, just thinking about this experience it only makes me more upset.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r539598824-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>539598824</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r538991599-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>538991599</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Great location and nice digs!</t>
+  </si>
+  <si>
+    <t>It was a very comfortable relaxing stay at Hyatt in Katy, Texas. We had been driving for hours, so a comfortable, friendly environment made our arrival so welcoming! The room was clean. It was very quiet. Staff was very friendly. The room had complimentary water, which is so important! Such polite and friendly staff!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r537312015-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>537312015</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r536212621-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>536212621</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Spacious, well kept and convenient!</t>
+  </si>
+  <si>
+    <t>We stayed here while in attendance at an event at Great Southwest Equestrian center.  The location is very convenient to the venue and was very contemporary and well kept.  Our room was spacious (our teen slept on the sleeper sofa) and there are nice amenities.  Overall, very pleasant!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r534479514-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>534479514</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Really good but issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Been staying here since opened and keep coming back, great location for food across the road but the biggest big bear is the elevators you have to wait an eternity for them and maid service isn't the best, they missed my room again New hotel and I like it even with the faults </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r518226430-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>518226430</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r516110723-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>516110723</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>AC was out so had to look for an overnight stay. They were great at helping when they knew I was going to hard time for temp. They offer water to the entire family even though it was for a one night thing. Thanks to Hyatt will recom in future for any problem.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r515067988-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>515067988</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>The hotel is conveniently located within sight of the freeway but not so close that you are kept awake by freeway noise.  There are several restaurants and convenience stores within walking distance.   This is a well maintained hotel.  The staff keeps this place spotless.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r508211625-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>508211625</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Awesome Stay!!</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this property as a pleasure stay and we were very pleased with the rooms and staff. The rooms were spotless, beds were comfortable, nice décor, friendly staff, adequate fitness center and good breakfast. Room service was speedy and the food came prepared just as we ordered. There's a lot of great restaurants nearby (one of my favorite's was Torchy's Taco at La Centerra).Duanna and Nate took good care of us. We will definitely stay again and recommend this property for business or pleasure.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r506029471-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>506029471</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Nice property, ordinary management</t>
+  </si>
+  <si>
+    <t>New very nice, modern, cozy property near Katy Mills Mall. Open-space design with lots of natural lighting. Beautiful lobby. Big rooms with seating area. Management effort is not up to par. Front desk and housekeeping personnel need lots of training, particularly those covering the weekend shifts. Stayed for 4 nights. One day, housekeeping just bypassed our room. The lady at front desk just gave me four unfolded towels and tons of shampoo. Front desk weekend clerks look messy, poorly groomed. Breakfast run out of outmeal 15 minutes before closing. One of the only two business center computers was always out of service, so you had to wait in line to use it or print. Printer out of toner with blurry printing.  Manager or front desk not very friendly or concerned about it. Elevators are pretty slow. Wifi is poor at rooms. There is no courtesy coffee, tea or water at the lobby after breakfast like in other hotels of these class. You need to pay for a coffee at the bar.MoreShow less</t>
+  </si>
+  <si>
+    <t>New very nice, modern, cozy property near Katy Mills Mall. Open-space design with lots of natural lighting. Beautiful lobby. Big rooms with seating area. Management effort is not up to par. Front desk and housekeeping personnel need lots of training, particularly those covering the weekend shifts. Stayed for 4 nights. One day, housekeeping just bypassed our room. The lady at front desk just gave me four unfolded towels and tons of shampoo. Front desk weekend clerks look messy, poorly groomed. Breakfast run out of outmeal 15 minutes before closing. One of the only two business center computers was always out of service, so you had to wait in line to use it or print. Printer out of toner with blurry printing.  Manager or front desk not very friendly or concerned about it. Elevators are pretty slow. Wifi is poor at rooms. There is no courtesy coffee, tea or water at the lobby after breakfast like in other hotels of these class. You need to pay for a coffee at the bar.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r504625973-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>504625973</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome Staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebecca is very help full and she is always very happy and she makes you feel like family ! Goes beyond to help you ! Housekeeping is also very great and Carina is also very nice as is Daniela is also very helpful and Mona is also very helpful and she is very much missed </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r501991172-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>501991172</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My stay at this hotel was awesome. I was not stressful as usual. I was actually able to relax and focus on vacation time. The staff was nice and knowledgeable. The area in which I was placed was safe and secure. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r499568134-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>499568134</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Awesome stay.</t>
+  </si>
+  <si>
+    <t>The hotel staff were very accommodating. The rooms were very nice and the bed was very comfortable. Not to mention Direct TV. I think the nicest feature was the bathroom. The frosted glas and sliding glass doors was a nice touch.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r501805603-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>501805603</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r491808533-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>491808533</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Great as usual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a great stay for my sons graduation.  Parents loved their suite and it gave us a place to hang out and visit in private.  The hotel was full from all the graduations in the area and we felt the hotel could have staffed up more to address the crowds.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r493435988-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>493435988</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r491656340-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>491656340</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r489521131-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>489521131</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r488075567-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>488075567</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable and clean </t>
+  </si>
+  <si>
+    <t>Recently stayed one night in a king with sofabed room. Room was clean and bed was comfortable. Lighting was poor in the room but great in the bathroom. Loved to window shades, especially the daytime one. There was a refrigerator but no microwave in our room. Lobby was beautiful. Breakfast had a large variety (eggs, yogurt, fruit, oatmeal, bagels, etc) but meat was only available mixed with potatoes. There were both scrambled and hard boiled eggs though. Not many creamer options for coffee and there were no clean glasses for milk/juice/water. Internet required logging in with an email, which I preferred not to do. Hotel was close to interstate with many restaurants nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently stayed one night in a king with sofabed room. Room was clean and bed was comfortable. Lighting was poor in the room but great in the bathroom. Loved to window shades, especially the daytime one. There was a refrigerator but no microwave in our room. Lobby was beautiful. Breakfast had a large variety (eggs, yogurt, fruit, oatmeal, bagels, etc) but meat was only available mixed with potatoes. There were both scrambled and hard boiled eggs though. Not many creamer options for coffee and there were no clean glasses for milk/juice/water. Internet required logging in with an email, which I preferred not to do. Hotel was close to interstate with many restaurants nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r487858723-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>487858723</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Comfortable beds and nice rooms</t>
+  </si>
+  <si>
+    <t>The rooms are very nice, and the beds are very comfortable.  The hotel is very clean.  It has a convenient location and well-lit parking.  The free breakfast is a nice bonus!  My room backed up to a back driveway and was a bit noisy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r482449147-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>482449147</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Located right off the Katy freeway, it's easy to get to.  This was our second stay here and we will be back!    Staff goes out of their way to accommodate your every need .  Our room was clean, our bed comfortable and their is a 24 hour menu as well as a bar downstairs. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r482249986-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>482249986</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r479653846-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>479653846</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r469765313-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>469765313</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r469764934-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>469764934</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>BEST Hotel in Houston</t>
+  </si>
+  <si>
+    <t>Great reception from the bell staff, awesome welcome from front desk Staff, easy online check in and check out to your email, good warm food options, and BEST SLEEP ever! A MUST STAY HOTEL EXPERIENCE FOR ALL!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r468133586-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>468133586</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>I stay at hotel rooms at least 4 times a month. I'd never stay there again! The stay for me and my girlfriend and my anniversary. I've never been so disappointed.  I paid for the room the day before  so that she could be there for a nap  before I got there from work.  When she got there, the room was not ready,  she had to wait for over an hour to get it ready.  In the meantime she's calling me and complaining about it.  So I had to deal with a angry girlfriend for our anniversary.  She wasn't mad at me, she was just aggravated at the situation.  I don't know what else to say, except "worst hotel experience I've ever had"MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at hotel rooms at least 4 times a month. I'd never stay there again! The stay for me and my girlfriend and my anniversary. I've never been so disappointed.  I paid for the room the day before  so that she could be there for a nap  before I got there from work.  When she got there, the room was not ready,  she had to wait for over an hour to get it ready.  In the meantime she's calling me and complaining about it.  So I had to deal with a angry girlfriend for our anniversary.  She wasn't mad at me, she was just aggravated at the situation.  I don't know what else to say, except "worst hotel experience I've ever had"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r464204035-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>464204035</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Newer, nicer hotel that doesn't hurt the budget.  Food/beverage options are great compared to other hotels in this price range.  Location is great right off of the Katy freeway and there are also plenty of dining options nearby.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r464203531-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>464203531</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r462700674-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>462700674</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>new hotel!</t>
+  </si>
+  <si>
+    <t>Cute new hotel. The breakfast was great, the staff friendly. The gym and pool were both very nice and clean. The room was large. I would recommend a room on backside- street noise was loud at night from my room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r459463720-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>459463720</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>I think this is a new hotel. Smelled, looked new. And loved how it looked from the lobby to the room. Very pleasant and happy to stay here. Spacious room with nice living room area as Hyatt Place standard. It seems Hyatt Place no longer provide lotion for amenity. I expect all the hotels in this category provide that, so if I do not get it, it is an inconvenience. Reception staff here are young but not really professional to welcoming or recognizing guest. That made my score 4 stars.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r459540945-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>459540945</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r458675116-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>458675116</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Very good value hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for business and was impressed. The rooms were spacious and spotlessly clean. Breakfast is included, and a range of cereals, breads, fruits are available. There is a large car park and it's easy to find. The only problem we encountered was the wifi was not working for the first two days of our 4 day stay. Once fixed it was a strong signal. Staff are very helpful. It's a great location as there are several very good restaurants across the road.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r454378462-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>454378462</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substandard service! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed at this hotel for 5 days and the service was rotten from the moment we checked in. The front desk clerk was untidy and not welcoming. Even the manager was not flexible, we have not ever stayed in a hotel this rigid before. I was surprised tht this was a chain of Hyatt. Very disappointing and we don't think we'd return. The breakfast was also very limiting. Wouldn't recommend. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r450291155-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>450291155</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>Brand new hotel just off I-10</t>
+  </si>
+  <si>
+    <t>The banner outside the hotel says, "Now Open" and our family thought the hotel was a very pleasant stay. The breakfast was also very good. This hotel is close to many chain eateries, but we went to Joy Love Burger upon recommendation and it was quite good. This hotel is extremely clean and quiet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r448672810-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>448672810</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Very enjoyable</t>
+  </si>
+  <si>
+    <t>Nice place. Still smells new. Everything seems really clean. Beds are super comfortable. Across the street from a lot of eating options. Close to I-10, but quiet. Wireless worked well even when occupancy was high. Only downsides were the breakfast (which seemed rather substandard compared to the overall hotel quality.) A rolling shower door in our room that continually rolled open while showering. And the necessity to make a U-turn to enter the property from the I-10 side.Even so, this place was a bargain and I would stay here again.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r446646822-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>446646822</t>
+  </si>
+  <si>
+    <t>12/25/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r443845796-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>443845796</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Allergic to Down</t>
+  </si>
+  <si>
+    <t>The night shift had no access to swap out my pillows. They stated that management had restricted access to storage or other rooms due to another employee doing something wrong.  It was poor desicion making.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r441727640-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>441727640</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t>Awesome experience! Not so awesome food.</t>
+  </si>
+  <si>
+    <t>Check in was easy was greeted by employees, rooms were great nice and clean! Bed's were very comfortable and cool couch to lounge on. My only negative was the breakfast buffet....not much options some was cold and hard to chew, Also fake eggs are terrible! But still overall a quality experience.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r440653241-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>440653241</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>awesome, contemporary hotel!!</t>
+  </si>
+  <si>
+    <t>This hotel was exceptional! We loved the rooms, and especially enjoyed the couch area. My grandma thought the light above the couch was awesome for reading. The breakfast area is great, with a hot buffet that is constantly refilled. There is a nice little bar for a night cap or your favorite starbucks coffee! The location is great, with tons of places to eat right around the corner. Would definitely recommend and will certainly return.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r440482532-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>440482532</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>really new hotel, very friendly service, looks great</t>
+  </si>
+  <si>
+    <t>This hotel is really convenient to the freeway, and we had a room on the opposite side, but there was still a little traffic noise - it's a really busy freeway.  The hotel was also surprisingly noisy since they weren't very busy.  Our room was great - an end room, configured a bit differently than most of the rooms, very spacious, but the A/C just didn't get the whole room - bed alcove was warm when the area around the desk/couch was freezing.  Only one big vent for the room, might work great for the long skinny rooms down the hall, not so well for us.  The breakfast area was really well set up and the food was tasty.  Service both there and at the front desk was great.  We were right across the street from several restaurants - extremely convenient.  Would stay there again, be more prepared for a little noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is really convenient to the freeway, and we had a room on the opposite side, but there was still a little traffic noise - it's a really busy freeway.  The hotel was also surprisingly noisy since they weren't very busy.  Our room was great - an end room, configured a bit differently than most of the rooms, very spacious, but the A/C just didn't get the whole room - bed alcove was warm when the area around the desk/couch was freezing.  Only one big vent for the room, might work great for the long skinny rooms down the hall, not so well for us.  The breakfast area was really well set up and the food was tasty.  Service both there and at the front desk was great.  We were right across the street from several restaurants - extremely convenient.  Would stay there again, be more prepared for a little noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r440415792-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>440415792</t>
+  </si>
+  <si>
+    <t>Unsafe parking</t>
+  </si>
+  <si>
+    <t>The overall hotel and staff are great. Room was perfect for a family of five. However, we were pulling our horse trailer and had to park on the side of the building. It was well lit with plenty of parking spaces. We woke up to find our truck had been broken into. No security cameras in the parking lot. Our friends who stayed at a hotel very close to the Hyatt Place were also broken into. Very disappointing!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r434388902-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>434388902</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Family Gathering</t>
+  </si>
+  <si>
+    <t>The hotel is absolutely Gorgeous!  Staying at a Brand New Hotel makes me feel like I'm a VIP.Staff is so friendly and welcoming!  Menu selection is extensive (better than any hotel I've ever stayed in)!  The fully stocked bar makes my dreams come true!Thank you so much to the Hyatt Place Houston Katy Staff!  I'll definitely be back!</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r433749055-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>433749055</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Very Nice!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is new and clean! The staff is courteous and attentive. The free wifi and breakfast is a plus. The room size is comfortable enough for a family of 5. The one reason that I only gave this a 4 star was the fact that the room we were in, I could hear the traffic at all hours of the day which made it hard to have a restful sleep for a light sleeper like me. But otherwise, its has a great location. Hope will maintain the cleanliness of the place.... It was a nice experience. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r438217470-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>438217470</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r428541671-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>428541671</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Great place.</t>
+  </si>
+  <si>
+    <t>Loved my stay here. Stayed for 3 days nd returned for another 6. I have found my hotel in Houston, finally. Nice location, very new hotel, above and beyond service, superior amenities. The GM Ms. Alen was great and obviously knows her work. Her team is well-trained.Would highly recommend this place.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r426726030-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>426726030</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>A relatively new hotel</t>
+  </si>
+  <si>
+    <t>The more I stay at the different Hyatt Places around the country, the more I like them.  This particular one is pretty new so everything in the hotel was nice and fresh and new!  Because there weren't many travelers staying at this particular hotel, the staff put everyone on the same floor which made it more noisy than need be, however, free internet, free parking and free breakfast made the stay worthwhile.  I would definitely choose this place again whenever I'm in the area.  The price was very nice, too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r423343416-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>423343416</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Opened August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I could tell by the landscaping that this was a new hotel.  I pretty much stay at Hyatt places for both business and vacation travel so I know what they offer.  This hotel is a cut above every other Hyatt place solely on the modern furnishings and decor.  It is the same feel when you but a new car or new home.  They did an outstanding job on the exterior and interior and if this is the direction the chain is going that is very encouraging.  I would recommend that Hyatt review there top money making locations and refresh them as closely as possible to Katy.  </t>
   </si>
 </sst>
 </file>
@@ -532,11 +1555,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1587,4203 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>113</v>
+      </c>
+      <c r="O14" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s">
+        <v>134</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>113</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>113</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>113</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" t="s">
+        <v>164</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>150</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>171</v>
+      </c>
+      <c r="J24" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" t="s">
+        <v>174</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" t="s">
+        <v>179</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O25" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>183</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>185</v>
+      </c>
+      <c r="J27" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" t="s">
+        <v>188</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>183</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>183</v>
+      </c>
+      <c r="O28" t="s">
+        <v>125</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>199</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" t="s">
+        <v>203</v>
+      </c>
+      <c r="L30" t="s">
+        <v>204</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>199</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L31" t="s">
+        <v>210</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>199</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>212</v>
+      </c>
+      <c r="J32" t="s">
+        <v>213</v>
+      </c>
+      <c r="K32" t="s">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s">
+        <v>215</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>199</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>217</v>
+      </c>
+      <c r="J33" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" t="s">
+        <v>219</v>
+      </c>
+      <c r="L33" t="s">
+        <v>220</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>199</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>222</v>
+      </c>
+      <c r="J34" t="s">
+        <v>223</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>224</v>
+      </c>
+      <c r="O34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>226</v>
+      </c>
+      <c r="J35" t="s">
+        <v>227</v>
+      </c>
+      <c r="K35" t="s">
+        <v>228</v>
+      </c>
+      <c r="L35" t="s">
+        <v>229</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>224</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>231</v>
+      </c>
+      <c r="J36" t="s">
+        <v>227</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>224</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>233</v>
+      </c>
+      <c r="J37" t="s">
+        <v>234</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>235</v>
+      </c>
+      <c r="O37" t="s">
+        <v>125</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>237</v>
+      </c>
+      <c r="J38" t="s">
+        <v>238</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>235</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>240</v>
+      </c>
+      <c r="J39" t="s">
+        <v>241</v>
+      </c>
+      <c r="K39" t="s">
+        <v>242</v>
+      </c>
+      <c r="L39" t="s">
+        <v>243</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>235</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>246</v>
+      </c>
+      <c r="J40" t="s">
+        <v>247</v>
+      </c>
+      <c r="K40" t="s">
+        <v>248</v>
+      </c>
+      <c r="L40" t="s">
+        <v>249</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>235</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>251</v>
+      </c>
+      <c r="J41" t="s">
+        <v>252</v>
+      </c>
+      <c r="K41" t="s">
+        <v>253</v>
+      </c>
+      <c r="L41" t="s">
+        <v>254</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>235</v>
+      </c>
+      <c r="O41" t="s">
+        <v>78</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>256</v>
+      </c>
+      <c r="J42" t="s">
+        <v>257</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>235</v>
+      </c>
+      <c r="O42" t="s">
+        <v>125</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>258</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>259</v>
+      </c>
+      <c r="J43" t="s">
+        <v>260</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>261</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>263</v>
+      </c>
+      <c r="J44" t="s">
+        <v>264</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>265</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>267</v>
+      </c>
+      <c r="J45" t="s">
+        <v>268</v>
+      </c>
+      <c r="K45" t="s">
+        <v>269</v>
+      </c>
+      <c r="L45" t="s">
+        <v>270</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>265</v>
+      </c>
+      <c r="O45" t="s">
+        <v>78</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>271</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>272</v>
+      </c>
+      <c r="J46" t="s">
+        <v>273</v>
+      </c>
+      <c r="K46" t="s">
+        <v>274</v>
+      </c>
+      <c r="L46" t="s">
+        <v>275</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>265</v>
+      </c>
+      <c r="O46" t="s">
+        <v>78</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>277</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>278</v>
+      </c>
+      <c r="J47" t="s">
+        <v>279</v>
+      </c>
+      <c r="K47" t="s">
+        <v>280</v>
+      </c>
+      <c r="L47" t="s">
+        <v>281</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>282</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>283</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>284</v>
+      </c>
+      <c r="J48" t="s">
+        <v>285</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>282</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>286</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>287</v>
+      </c>
+      <c r="J49" t="s">
+        <v>288</v>
+      </c>
+      <c r="K49" t="s">
+        <v>289</v>
+      </c>
+      <c r="L49" t="s">
+        <v>290</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>282</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>291</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>292</v>
+      </c>
+      <c r="J50" t="s">
+        <v>293</v>
+      </c>
+      <c r="K50" t="s">
+        <v>294</v>
+      </c>
+      <c r="L50" t="s">
+        <v>295</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>282</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>297</v>
+      </c>
+      <c r="J51" t="s">
+        <v>298</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>282</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>299</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>300</v>
+      </c>
+      <c r="J52" t="s">
+        <v>301</v>
+      </c>
+      <c r="K52" t="s">
+        <v>302</v>
+      </c>
+      <c r="L52" t="s">
+        <v>303</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>282</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>304</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>305</v>
+      </c>
+      <c r="J53" t="s">
+        <v>306</v>
+      </c>
+      <c r="K53" t="s">
+        <v>307</v>
+      </c>
+      <c r="L53" t="s">
+        <v>308</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>309</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>310</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>311</v>
+      </c>
+      <c r="J54" t="s">
+        <v>312</v>
+      </c>
+      <c r="K54" t="s">
+        <v>313</v>
+      </c>
+      <c r="L54" t="s">
+        <v>314</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>309</v>
+      </c>
+      <c r="O54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>315</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>316</v>
+      </c>
+      <c r="J55" t="s">
+        <v>317</v>
+      </c>
+      <c r="K55" t="s">
+        <v>318</v>
+      </c>
+      <c r="L55" t="s">
+        <v>319</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>320</v>
+      </c>
+      <c r="O55" t="s">
+        <v>78</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>321</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>322</v>
+      </c>
+      <c r="J56" t="s">
+        <v>323</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>320</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>324</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>325</v>
+      </c>
+      <c r="J57" t="s">
+        <v>326</v>
+      </c>
+      <c r="K57" t="s">
+        <v>327</v>
+      </c>
+      <c r="L57" t="s">
+        <v>328</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>320</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>329</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>330</v>
+      </c>
+      <c r="J58" t="s">
+        <v>331</v>
+      </c>
+      <c r="K58" t="s">
+        <v>332</v>
+      </c>
+      <c r="L58" t="s">
+        <v>333</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>334</v>
+      </c>
+      <c r="O58" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>335</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>336</v>
+      </c>
+      <c r="J59" t="s">
+        <v>337</v>
+      </c>
+      <c r="K59" t="s">
+        <v>338</v>
+      </c>
+      <c r="L59" t="s">
+        <v>339</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>334</v>
+      </c>
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>340</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>341</v>
+      </c>
+      <c r="J60" t="s">
+        <v>342</v>
+      </c>
+      <c r="K60" t="s">
+        <v>343</v>
+      </c>
+      <c r="L60" t="s">
+        <v>344</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>334</v>
+      </c>
+      <c r="O60" t="s">
+        <v>78</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>346</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>347</v>
+      </c>
+      <c r="J61" t="s">
+        <v>342</v>
+      </c>
+      <c r="K61" t="s">
+        <v>348</v>
+      </c>
+      <c r="L61" t="s">
+        <v>349</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>334</v>
+      </c>
+      <c r="O61" t="s">
+        <v>169</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>350</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>351</v>
+      </c>
+      <c r="J62" t="s">
+        <v>352</v>
+      </c>
+      <c r="K62" t="s">
+        <v>353</v>
+      </c>
+      <c r="L62" t="s">
+        <v>354</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>355</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>356</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>357</v>
+      </c>
+      <c r="J63" t="s">
+        <v>358</v>
+      </c>
+      <c r="K63" t="s">
+        <v>359</v>
+      </c>
+      <c r="L63" t="s">
+        <v>360</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>361</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>362</v>
+      </c>
+      <c r="J64" t="s">
+        <v>363</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>355</v>
+      </c>
+      <c r="O64" t="s">
+        <v>78</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>364</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>365</v>
+      </c>
+      <c r="J65" t="s">
+        <v>366</v>
+      </c>
+      <c r="K65" t="s">
+        <v>367</v>
+      </c>
+      <c r="L65" t="s">
+        <v>368</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>369</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>370</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>371</v>
+      </c>
+      <c r="J66" t="s">
+        <v>372</v>
+      </c>
+      <c r="K66" t="s">
+        <v>373</v>
+      </c>
+      <c r="L66" t="s">
+        <v>374</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>355</v>
+      </c>
+      <c r="O66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>375</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>376</v>
+      </c>
+      <c r="J67" t="s">
+        <v>377</v>
+      </c>
+      <c r="K67" t="s">
+        <v>378</v>
+      </c>
+      <c r="L67" t="s">
+        <v>379</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>369</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_394.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_394.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="615">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,117 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r613836565-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>9139819</t>
+  </si>
+  <si>
+    <t>613836565</t>
+  </si>
+  <si>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great staff, they were very friendly and remembered my name and checked up on me as a I went through a very hectic wedding weekend. Room was clean and had good amenities. I think the only thing I wish it had was a microwave. </t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r608220008-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>608220008</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Very nice place!</t>
+  </si>
+  <si>
+    <t>My stay here was very nice - The front desk staff were especially nice - I arrived early and then was able to get my. room - even before noon!  The room was large - clean - very nice - the view was not great - just a parking lot - I was disappointed that I could not get anything there that was diet caffeine free - not even just caffeine free - Really? How hard is it to stock Sprite? No machines anywhere - it is close to a bunch of restaurants a block or so away - But have to cross some large streets to get to it - But a bunch to choose fromMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>My stay here was very nice - The front desk staff were especially nice - I arrived early and then was able to get my. room - even before noon!  The room was large - clean - very nice - the view was not great - just a parking lot - I was disappointed that I could not get anything there that was diet caffeine free - not even just caffeine free - Really? How hard is it to stock Sprite? No machines anywhere - it is close to a bunch of restaurants a block or so away - But have to cross some large streets to get to it - But a bunch to choose fromMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r605354930-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>605354930</t>
+  </si>
+  <si>
     <t>08/11/2018</t>
   </si>
   <si>
+    <t>Katy gem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had to stay in the Katy area unexpectedly and chose this hotel because we have stayed in the past.  The manager, Nate, was extremely helpful and kind.  He remembered us and went out of his way to make sure we were satisfied and had a good stay.  The other staff members were very helpful also.  Great hotel, always clean and friendly staff. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r601768816-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>601768816</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Our New Favorite Hotel</t>
+  </si>
+  <si>
+    <t>We arrived at 8 p.m. and got a handicapped room that we didn't request... very big and spacious. When visiting other hotels, I often look at the heavy drapes and wonder how many years they've been hanging catching dust...not at Hyatt Place. They have shades that work with the touch of a wall switch. They have an ice machine where you don't have to scoop out ice with a large scoop, simply press a button and out it comes directly into your container. Tired of Air conditioning units below the window? Not here. It's in the wall with a vent. Want quiet? This is your place. The walls were insulated so well that we couldn't even hear the dogs across the hall (we knew they were there because of the noise we heard when walking down the hall). There is abundant seating for the breakfast bar, both indoors and outdoors. The breakfast bar was replenished frequently and consisted of waffles, scrambled eggs, bacon, various fruits, cereals, oatmeal, and various bread items. Our only problem was that the pool was crowded with kids at 9:30 p.m., and we never got to use it, and it could have used a microwave. There is a variety of things to do across the street (restauran and entertainment businesses). We will definitely go again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We arrived at 8 p.m. and got a handicapped room that we didn't request... very big and spacious. When visiting other hotels, I often look at the heavy drapes and wonder how many years they've been hanging catching dust...not at Hyatt Place. They have shades that work with the touch of a wall switch. They have an ice machine where you don't have to scoop out ice with a large scoop, simply press a button and out it comes directly into your container. Tired of Air conditioning units below the window? Not here. It's in the wall with a vent. Want quiet? This is your place. The walls were insulated so well that we couldn't even hear the dogs across the hall (we knew they were there because of the noise we heard when walking down the hall). There is abundant seating for the breakfast bar, both indoors and outdoors. The breakfast bar was replenished frequently and consisted of waffles, scrambled eggs, bacon, various fruits, cereals, oatmeal, and various bread items. Our only problem was that the pool was crowded with kids at 9:30 p.m., and we never got to use it, and it could have used a microwave. There is a variety of things to do across the street (restauran and entertainment businesses). We will definitely go again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r601557684-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>601557684</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Never staying here again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Check in time is 3pm, I was there at 2:30pm and they didn't have any rooms ready.  I had to leave and come back a few hours later.2. When i checked into my room, there was a bug on my pillow.  I am not sure what kind of bug it was but I was disgusted and had to be moved to a different room.  3. The front desk hardly ever answers their phone.  I had to call multiple times until someone finally answered. 4. The so called </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r599000971-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
-    <t>56062</t>
-  </si>
-  <si>
-    <t>9139819</t>
-  </si>
-  <si>
     <t>599000971</t>
   </si>
   <si>
@@ -174,12 +273,6 @@
     <t xml:space="preserve">Super clean and the rooms were very clean and comfortable beds!  The breakfast looked great!  The staff was very professional and courteous.  Plenty of parking.  They had a bar and 24 hr food service.  Clean pool.  </t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r598633488-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -195,9 +288,6 @@
     <t>I would never stay here even if they were for free. I stayed for 3weeks they cleaned my room 2xs only i repeatedly called front desk and they would tell me housekeeping is on their way...but relly weren't on top of that one of my pillows had a blood stained i told them to change everything again i left my room for a few hrs when i came back they had fix the beds and changed the towels to my surprise i check the pillows and they had folded the pillow into the inside part so i wouldn't see the blood stained they didn't change my trash either ... i put the trash outside my room cuz im sick of this horrible serviceMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>I would never stay here even if they were for free. I stayed for 3weeks they cleaned my room 2xs only i repeatedly called front desk and they would tell me housekeeping is on their way...but relly weren't on top of that one of my pillows had a blood stained i told them to change everything again i left my room for a few hrs when i came back they had fix the beds and changed the towels to my surprise i check the pillows and they had folded the pillow into the inside part so i wouldn't see the blood stained they didn't change my trash either ... i put the trash outside my room cuz im sick of this horrible serviceMore</t>
   </si>
   <si>
@@ -219,6 +309,39 @@
     <t>June 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r595410362-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>595410362</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Amazing front desk personal</t>
+  </si>
+  <si>
+    <t>Front desk great. Manager nice. Asst manager great. Would stay here again if ever go back to katy tx. Central to all one needs when traveling. Check in and check out was seemless and fast. Kaitlyn was helpful &amp; sweet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r590552010-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>590552010</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Business Trip - Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hyatt Place was great! I had several samples delivered for a business meeting, and they went above and beyond to make sure I unloaded them, kept them safe, and even helped me return them after my meeting was over. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r590382401-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -252,9 +375,6 @@
     <t>My husband, our husky and I stayed at this Hyatt for 5 days; we were welcomed by the most attentive, friendly, courteous staff. The hotel is super nice and clean.  I have no complaints except for the breakfast food.  It needs to be improved.  I still give it a 5 star for my overall experience</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r585429108-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -268,6 +388,33 @@
   </si>
   <si>
     <t xml:space="preserve">It’s a nice clean place where the staff is really friendly. I guess the price is ok for that area. If someone is interest dogs are allowed. You are within 2 min on the highway and ready to go every direction  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r585323587-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>585323587</t>
+  </si>
+  <si>
+    <t>Clean and Quiet</t>
+  </si>
+  <si>
+    <t>We were there for a horse show and the hotel is a short drive to the Great Southwest Equestrian Center.  For a fee, this hotel is dog friendly.  The online check-in/check-out process is easy and convenient.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r584843611-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>584843611</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>trip</t>
+  </si>
+  <si>
+    <t>it was a nice hotel friendly staff clean rooms great location restaurant across the street restaurant right in front of the hotel comfy sofa nice beds check in check out was easy you greet people that visit you in the lobby</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r578153219-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
@@ -330,6 +477,45 @@
 The room doors.  This seems to be a feature of hotels in the US, but man those doors do slam!  And people don't worry about the fact...Stayed here in early April 2018 and overall I was really impressed.  The room was a nice size, with two (comfy) twin beds and a lounge area, plus a nice-sized bathroom.  The breakfast was a nice bonus.  The selection isn't vast, but for free it's a great little bonus to start your day with.  The area its in seems very nice, and is about as a short of a drive into central Houston as you could likely expect (takes about 20 minutes, traffic-depending).  Loads of shops and restaurants nearby.There were a couple of minor things that pulled this down from a five-star review:Housekeeping don't seem to be terribly efficient.  We had to ask for our coffee and shampoo to be topped up on the third day after no-one had done it the preceding days.  Then on the last day we were taking our time going out and they knocked while we were still in the room.  I asked if they could come back in half an hour, since we'd be gone by then.  Only they never came back!  When we got back at the end of the day the room was the same as we'd left it.  We're fairly tidy, so it wasn't a disaster, but I was a bit disappointed.The room doors.  This seems to be a feature of hotels in the US, but man those doors do slam!  And people don't worry about the fact that they slam.  Soft-closing doors would be a nice add.But great spot and overall a really nice hotel for a very reasonable price.  If we come back to Houston (which is a lovely city) we'd certainly look to stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r565500622-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>565500622</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t>Very nice hotel, staff...new, modern and spacious rooms</t>
+  </si>
+  <si>
+    <t>This is our go-to hotel in Katy. Always friendly and efficient staff.  Rooms clean and modern and spacious. Like the sitting couch area. Nice bathroom. Very good breakfast buffet. Bar too!  Good proximity to restaurants and freeways.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r564034347-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>564034347</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>No problem until the last moment</t>
+  </si>
+  <si>
+    <t>My boss visited Houston from abroad and  stayed here with his team for 3 days. They didn’t complain much about this hotel until the early morning they were checking out.When I arrived to pick them up for a ride to airport, my boss and has team were standing looking so confused. They told me something about a charge of  $300 deposit. I didn’t see anyone near front desk attending them. Only person in the lobby was a guy lying on a couch on the corner 100 feet away. I thought he was a guest of the hotel resting in the lobby. He looked at us so lazily and didn’t show any interest in assisting the guest.Are you kidding me? Only employee on duty in the front desk left the 3 guests totally unattended, abandoned them like that and he is lying on the lobby couch??? I didn’t complain and deal with the issue on site because we had a flight to catch. I had to send them almost insulted. Whether this is caused by individual work ethic or lack of the hotel training, I strongly believe this type of ignorant maltreatment has to be stopped immediately. I was so embarrassed to let them stay on this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>My boss visited Houston from abroad and  stayed here with his team for 3 days. They didn’t complain much about this hotel until the early morning they were checking out.When I arrived to pick them up for a ride to airport, my boss and has team were standing looking so confused. They told me something about a charge of  $300 deposit. I didn’t see anyone near front desk attending them. Only person in the lobby was a guy lying on a couch on the corner 100 feet away. I thought he was a guest of the hotel resting in the lobby. He looked at us so lazily and didn’t show any interest in assisting the guest.Are you kidding me? Only employee on duty in the front desk left the 3 guests totally unattended, abandoned them like that and he is lying on the lobby couch??? I didn’t complain and deal with the issue on site because we had a flight to catch. I had to send them almost insulted. Whether this is caused by individual work ethic or lack of the hotel training, I strongly believe this type of ignorant maltreatment has to be stopped immediately. I was so embarrassed to let them stay on this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r560064640-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -345,9 +531,6 @@
     <t>We love this place so clean and nice. The rooms are comfortable with a sitting area and King Bed. Very Quiet. nice walk in Shower. Breakfast is very good. Bacon!!! Great coffee and very clean breakfast area. good selection. Staff very nice. Didn't get the young mans name but remembered us from a year ago! Cool.</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r555573239-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -384,6 +567,36 @@
     <t xml:space="preserve">Hotel staff were all very kind and accommodating.  Maid service was EXCELLENT.  Hotel accommodated our family pet and were very kind towards her as well.  Security in and around the hotel was some of the best I’ve ever seen in a hotel. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r550796685-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>550796685</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>Passing through</t>
+  </si>
+  <si>
+    <t>Needed a great place to stay on short notice.  Better quality and price than typical Comfort Suites.  Find them wherever they are located!  Great hotel for value pricing!  It was a pleasure and I will use wherever I find them.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r549363706-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>549363706</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is new and very clean the buffet was delicious, not enough coffee on hand! Would stay there again. Staff was easy to work with. We had to change rooms due to a defective thermostat, we let the desk clerk know early but it didn't get handled before we returned lat in the evening. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r549056265-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -429,6 +642,39 @@
     <t xml:space="preserve">This trip was trouble free, the rooms were clean. The staff was excellent. I traveled to Katy to pick up my grandson for Christmas. Also, my younger grandson traveled with me,!the room was spacious and comfortable. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r547495310-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>547495310</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>Weekend wedding!!!</t>
+  </si>
+  <si>
+    <t>My niece set the Hyatt up for out-of-town visitors at a convenient location. Excellent choice with comfortable and upscale accommodations. Staff were  great and allowed late check out. Joining Hyatt rewards allowed for a very competitive room rate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r547252536-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>547252536</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Comfortable and home feel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here during the Harvey aftermath and revisited some time later. The hotel is clean and literally was our home for some time.  The breakfast has a great variety. The staff is accommodating and caring for their hotel guests. We were thankful to have a hotel that felt comfortable  and clean. There are restaurants within walking distance, so it’s a plus if you’d like to venture out without a car. We would recommend this hotel to family &amp; friends. This is a family friendly hotel. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r546903319-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -477,6 +723,45 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r542340129-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>542340129</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Wedding</t>
+  </si>
+  <si>
+    <t>Special occasion- attended a wedding in Houston,texas.Our stay at Hyatt place Katy was great Nate greeted us with smiles and the hotel operate was excellent!! He was very respectful and resourceful.!MoreShow less</t>
+  </si>
+  <si>
+    <t>leticia R, General Manager at Hyatt Place Houston Katy, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Special occasion- attended a wedding in Houston,texas.Our stay at Hyatt place Katy was great Nate greeted us with smiles and the hotel operate was excellent!! He was very respectful and resourceful.!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r540840441-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>540840441</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Great value!</t>
+  </si>
+  <si>
+    <t>This hotel is super clean, very much updated and very convenient to the Great Southwestern Equestrian Center.  Roomy if traveling with a teen or child.  Breakfast looked to be ample, although I did not partake on this trip.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r539864615-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -519,6 +804,36 @@
     <t>It was a very comfortable relaxing stay at Hyatt in Katy, Texas. We had been driving for hours, so a comfortable, friendly environment made our arrival so welcoming! The room was clean. It was very quiet. Staff was very friendly. The room had complimentary water, which is so important! Such polite and friendly staff!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r537485986-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>537485986</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>The Fire Alarm went off every morning at 7;30am.  The price was reasonable and the location was good.  The breakfast was average.  I would stay here again if the would fix the Fire Alarm.  Did not use pool.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r537449231-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>537449231</t>
+  </si>
+  <si>
+    <t>Need help!</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel with a huge staffing problem. We were there for 3 nights. All 3 mornings between 7 and 7:30 the fire alarm went off. The breakfast was cooked in a microwave and tasteless. Food and coffee was not replenished when out. The toaster caught fire and we couldn’t find anyone to tell. The first night we had to change rooms as our door wouldn’t lock. The one lady at the front desk was trying to help with the food and people were trying to check out. I would never stay here again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r537312015-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -528,12 +843,6 @@
     <t>10/30/2017</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r536212621-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -564,6 +873,27 @@
     <t xml:space="preserve">Been staying here since opened and keep coming back, great location for food across the road but the biggest big bear is the elevators you have to wait an eternity for them and maid service isn't the best, they missed my room again New hotel and I like it even with the faults </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r530671436-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>530671436</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Last minute booking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were there for business after Hurricane Harvey and most hotels were booked, needed 13 rooms. Hera the district property manager worked extremely hard to get us placed. Will definitely return and further recommend my company start using Hyatt Place going forward. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r530689811-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>530689811</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r518226430-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -606,6 +936,39 @@
     <t>The hotel is conveniently located within sight of the freeway but not so close that you are kept awake by freeway noise.  There are several restaurants and convenience stores within walking distance.   This is a well maintained hotel.  The staff keeps this place spotless.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r510113351-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>510113351</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Decent but nothing special</t>
+  </si>
+  <si>
+    <t>This is a fairly new property however I will probably not stay there again. Our experience wasn't bad but the amenities had a cheap feel. Flimsy plastic toilet seats. A sliding external bathroom door. Breakfast was bland both mornings of our stay. Front desk employees that are your first contact and impression were distracted by there own personal conversation. The best thing going is that it's really close to the typhoons texas water park in Katy. That,was great fun. Lots of places to eat close by. Parking was a bit off and our room had full view of the neighborhood back yards.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r508465953-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>508465953</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Very disappointed</t>
+  </si>
+  <si>
+    <t>The Manager on the nights my husband and I stayed  was very unfriendly he was very unprofessional for he left Us waiting to check in and then when he came back down to have a evening cocktail he was no where to be found and then after about 20 mins he came from the back and the phones had been ring and there was even a couple who where waiting to check in and they left .  My friend recommend this Hotel and my Husband said we would never go back the Morning staff was very Helpful and the Hotel was clean .</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r508211625-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -621,9 +984,6 @@
     <t>My family and I stayed at this property as a pleasure stay and we were very pleased with the rooms and staff. The rooms were spotless, beds were comfortable, nice décor, friendly staff, adequate fitness center and good breakfast. Room service was speedy and the food came prepared just as we ordered. There's a lot of great restaurants nearby (one of my favorite's was Torchy's Taco at La Centerra).Duanna and Nate took good care of us. We will definitely stay again and recommend this property for business or pleasure.</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r506029471-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -657,6 +1017,42 @@
     <t xml:space="preserve">Rebecca is very help full and she is always very happy and she makes you feel like family ! Goes beyond to help you ! Housekeeping is also very great and Carina is also very nice as is Daniela is also very helpful and Mona is also very helpful and she is very much missed </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r504481504-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>504481504</t>
+  </si>
+  <si>
+    <t>Clean, modern hotel highly recommended</t>
+  </si>
+  <si>
+    <t>We stayed here whilst in the area for a long weekend. From check-in to checkout we had no problems. The staff were all friendly.  The rooms were very spacious and we like the small lounge area in the room. Perfect for relaxing after a day in exploring the many local attractions.Rooms were clean and modern. Only gripe was we could hear a family with kids above us. The kids woke early and were running about. Apart from that it was great.Location is convenient for the freeway and a Wal-Mart is a short drive away.  I would only recommend staying here if you have a car as its about 40-60 mins away from houston airport.Will return in the future as it was a great base.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>We stayed here whilst in the area for a long weekend. From check-in to checkout we had no problems. The staff were all friendly.  The rooms were very spacious and we like the small lounge area in the room. Perfect for relaxing after a day in exploring the many local attractions.Rooms were clean and modern. Only gripe was we could hear a family with kids above us. The kids woke early and were running about. Apart from that it was great.Location is convenient for the freeway and a Wal-Mart is a short drive away.  I would only recommend staying here if you have a car as its about 40-60 mins away from houston airport.Will return in the future as it was a great base.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r503652729-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>503652729</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>So wonderful I considered living there.</t>
+  </si>
+  <si>
+    <t>Super hosts, housekeeping, best free breakfast, clean, safe, service with a smile.  Front desk multi tasks, very difficult to do, but they get it done.Excellent coffee.  Nice safe gym.  Wonderful heated pool.  Great price.I stayed over 4 months and was always treated excellently.  A great place to stay.  I would look no further.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r501991172-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -696,7 +1092,34 @@
     <t>07/06/2017</t>
   </si>
   <si>
-    <t>June 2017</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r497185674-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>497185674</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>I stay at this Hotel and I love it The Assistant General Manager Duana Gillard Is so Very Nice and goes beyond  the call of duty to Help Her Guest to make them feel like Family and she is always Smiling</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r496107468-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>496107468</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Nice, clean and great staff</t>
+  </si>
+  <si>
+    <t>Apart from the loud Air Conditioning in the room, I had a very nice stay. The location is good, with lot's of Restaurants within Walking distance.Super friendly staff that makes you feel very welcome. Good value!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r491808533-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
@@ -732,6 +1155,30 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r491656231-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>491656231</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r489709553-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>489709553</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Trip to Katy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel property was in great shape. Rooms and lobby weee clean. Workout room had treadmills and free weights. From desk staff was very friendly and explained all the amenities from the breakfast in the morning to the 24 hour room service. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r489521131-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -774,6 +1221,24 @@
     <t>The rooms are very nice, and the beds are very comfortable.  The hotel is very clean.  It has a convenient location and well-lit parking.  The free breakfast is a nice bonus!  My room backed up to a back driveway and was a bit noisy.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r487857396-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>487857396</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r483576063-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>483576063</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r482449147-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -810,6 +1275,30 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r471260825-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>471260825</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Terrible Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waited over 30 minutes for front desk attendant to come from back to check us in.  Line was long by the time she came came out.  Entire time phones ringing no one answering.  Upset guest waiting for service and no one to help them.  Restaurant was "open"but yet no server to help you.  Once clerk came to desk really wasn't concerned about her lack of service!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r471558268-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>471558268</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r469765313-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -819,9 +1308,6 @@
     <t>03/21/2017</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r469764934-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -855,24 +1341,51 @@
     <t>I stay at hotel rooms at least 4 times a month. I'd never stay there again! The stay for me and my girlfriend and my anniversary. I've never been so disappointed.  I paid for the room the day before  so that she could be there for a nap  before I got there from work.  When she got there, the room was not ready,  she had to wait for over an hour to get it ready.  In the meantime she's calling me and complaining about it.  So I had to deal with a angry girlfriend for our anniversary.  She wasn't mad at me, she was just aggravated at the situation.  I don't know what else to say, except "worst hotel experience I've ever had"More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r467232535-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>467232535</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>I was very satisfied with my stay here. The staff is nice and rooms are very nice and modern. Though I arrived very early, the staff made sure I was comfortable until I was able to check-in and even offered me breakfast. I would recommend this hotel to anyone visiting the Houston/Katy area as I consider making this the place I'll be staying on my next trip to the Houston/Katy area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r463888759-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>463888759</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>New Hotel will stay again</t>
+  </si>
+  <si>
+    <t>Nice new modern hotel. Great price. Complementary Breakfast was very good. The staff was great. The room was big nice comfortable couch and king size bed. Bathroom had a nice walk in shower. I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r464204035-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
     <t>464204035</t>
   </si>
   <si>
-    <t>03/01/2017</t>
-  </si>
-  <si>
     <t>Good stay</t>
   </si>
   <si>
     <t>Newer, nicer hotel that doesn't hurt the budget.  Food/beverage options are great compared to other hotels in this price range.  Location is great right off of the Katy freeway and there are also plenty of dining options nearby.</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r464203531-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -897,6 +1410,36 @@
     <t>Cute new hotel. The breakfast was great, the staff friendly. The gym and pool were both very nice and clean. The room was large. I would recommend a room on backside- street noise was loud at night from my room.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r461857504-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>461857504</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>I would recommend this hotel to anyone, great area lots of places to go there's a nice bar and grill across the street also the mall is right down the road. The room is very clean and room service is excellent. Restrooms are great! The breakfast is wonderful , I hate missing it. Customer service is great everyone is nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r462393542-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>462393542</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Would Stay Here Again</t>
+  </si>
+  <si>
+    <t>I had a great nights sleep. The mattress was perfect. There was no microwave in the room to reheat our food we brought back to the room to eat. Also, great location. Just off the highway yet not in the depths of hell (driving through Houston). The breakfast was good too. I would still stay here again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r459463720-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1479,42 @@
     <t>Stayed here for business and was impressed. The rooms were spacious and spotlessly clean. Breakfast is included, and a range of cereals, breads, fruits are available. There is a large car park and it's easy to find. The only problem we encountered was the wifi was not working for the first two days of our 4 day stay. Once fixed it was a strong signal. Staff are very helpful. It's a great location as there are several very good restaurants across the road.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r456837763-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>456837763</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Our TRIP To Katy, TX</t>
+  </si>
+  <si>
+    <t>Hotel met our expectations. We traveled for a funeral and was looing for a clean, safe, nice hotel to relax in when it was all said and done. Mission accomplished. Hotel was fairly new, very modern and clean. Rooms had nice beds, very quiet only dust we found was on top of the ice bucket. Sofa was comfortable could be pulled out for extra bed. Even had power outlets built into sofa bottom. Real coffee mugs and glasses, with tea and coffee made a nice touch. Plenty of room for your clothes with an stand up closet and plenty of dresser drawer space. Very modern design. Hotel was not packed and they staggered people in rooms apart so was really quiet, did see kiddos there. Was public internet and copy machines available to all. Nice patio enclosed with fence for smokers or dining out. Full bar and 24hr room service, we did not use either. Did have the morning breakfast, had hot and cold food, and choice of eggs , waffles, cereal, oatmeal, toast , bagels ect and choice of drinks, was good. Plenty of food, very clean and lots of table choices to sit at.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Hotel met our expectations. We traveled for a funeral and was looing for a clean, safe, nice hotel to relax in when it was all said and done. Mission accomplished. Hotel was fairly new, very modern and clean. Rooms had nice beds, very quiet only dust we found was on top of the ice bucket. Sofa was comfortable could be pulled out for extra bed. Even had power outlets built into sofa bottom. Real coffee mugs and glasses, with tea and coffee made a nice touch. Plenty of room for your clothes with an stand up closet and plenty of dresser drawer space. Very modern design. Hotel was not packed and they staggered people in rooms apart so was really quiet, did see kiddos there. Was public internet and copy machines available to all. Nice patio enclosed with fence for smokers or dining out. Full bar and 24hr room service, we did not use either. Did have the morning breakfast, had hot and cold food, and choice of eggs , waffles, cereal, oatmeal, toast , bagels ect and choice of drinks, was good. Plenty of food, very clean and lots of table choices to sit at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r455322481-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>455322481</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>Enjoyable stay @ Hyatt place</t>
+  </si>
+  <si>
+    <t>Had a wonderful stay. Rooms were contemporary looking and gorgeous.very neat. Bed and pillows were comfortable. Breakfast however wasn't much to write home about although it was served on nice plates. Overall, it was a lovely place to stay at, and I plan to make it my permanent hotel anytime I come to town, that is if they decide to put microwave ovens in the rooms.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r454378462-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -951,9 +1530,6 @@
     <t xml:space="preserve">We stayed at this hotel for 5 days and the service was rotten from the moment we checked in. The front desk clerk was untidy and not welcoming. Even the manager was not flexible, we have not ever stayed in a hotel this rigid before. I was surprised tht this was a chain of Hyatt. Very disappointing and we don't think we'd return. The breakfast was also very limiting. Wouldn't recommend. </t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r450291155-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1563,36 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r448316904-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>448316904</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nice. Dont change a thing.   Staff was excellent. hey were spread a little thin, but they did an excellent job. Breakfast was a little slow but it was worth the wait. Good location. I will be staying again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r447677528-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>447677528</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Very relaxing stay</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and very quiet.  I enjoyed having the extra room with the corner sofa and the bed was quite comfortable.  Front desk staff was very friendly and accommodating.  I felt comfortable coming and going early in the morning and getting back late at night.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r446646822-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1635,30 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r443005118-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>443005118</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r440902428-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>440902428</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Clean and comfy</t>
+  </si>
+  <si>
+    <t>New hotel but very nice, still smells new too. The showers are huge and really nice and the room is really spacious. I didn't see a lot of cars there but it may just be because its still new, it is in an open area off 1-10 though.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r440653241-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1704,30 @@
     <t>The overall hotel and staff are great. Room was perfect for a family of five. However, we were pulling our horse trailer and had to park on the side of the building. It was well lit with plenty of parking spaces. We woke up to find our truck had been broken into. No security cameras in the parking lot. Our friends who stayed at a hotel very close to the Hyatt Place were also broken into. Very disappointing!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r439156568-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>439156568</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Happiest at this Hyatt</t>
+  </si>
+  <si>
+    <t>Excellent value and convince, loved the fact that you can have coffee to cocktails. 2nd time to stay and had 2 different rooms with same fantastic water pressure. Also liked the large towels. Very clean</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r438439960-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>438439960</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r434388902-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1770,30 @@
     <t>10/25/2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r438216404-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>438216404</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Awesome stay!</t>
+  </si>
+  <si>
+    <t>We stayed at another prominent hotel chain the nights before we stayed at the Hyatt and had an even higher-quality experience at this Hyatt Place location. The rooms looked like they had recently built the building and the staff went above and beyond to be in service. It really felt like we were being treated like royalty! I would highly recommend it!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r438217453-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>438217453</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r428541671-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
   </si>
   <si>
@@ -1162,6 +1840,33 @@
   </si>
   <si>
     <t xml:space="preserve">I could tell by the landscaping that this was a new hotel.  I pretty much stay at Hyatt places for both business and vacation travel so I know what they offer.  This hotel is a cut above every other Hyatt place solely on the modern furnishings and decor.  It is the same feel when you but a new car or new home.  They did an outstanding job on the exterior and interior and if this is the direction the chain is going that is very encouraging.  I would recommend that Hyatt review there top money making locations and refresh them as closely as possible to Katy.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r423340727-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>423340727</t>
+  </si>
+  <si>
+    <t>Grateful Travelers</t>
+  </si>
+  <si>
+    <t>We have found our home away from home when visiting the area! Friendly staff, spacious rooms nicely decorated, crisp linens, soft towels, nice Internet w/remote printing, and last but not least a great complimentary breakfast. Wanted to keep this a place a secret all to myself,  but wanted them to be rewarded by receiving the business they deserve. Great job, and keep it up Hyatt!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d9139819-r423326921-Hyatt_Place_Houston_Katy-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>423326921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand new with very little hickups </t>
+  </si>
+  <si>
+    <t>The hotel is only a few weeks "old". Looks and smells brand new. I think there must have been a total of 6-10 rooms occupied the night I stayed based on cars in the parking lot.  I was wondering why they put me right next to an occupied room... why not leave some space? Maybe cleaning is easier.  I was the only one at breakfast which was nice and relaxing.  I asked for some lotion  (hyatt usually never has lotion in the room), but they still hadn't ordered any so I was out of luck, unfortunately. Front desk was super friendly and welcoming. I'm sure this hotel will do great once a few hickups are resolved.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is only a few weeks "old". Looks and smells brand new. I think there must have been a total of 6-10 rooms occupied the night I stayed based on cars in the parking lot.  I was wondering why they put me right next to an occupied room... why not leave some space? Maybe cleaning is easier.  I was the only one at breakfast which was nice and relaxing.  I asked for some lotion  (hyatt usually never has lotion in the room), but they still hadn't ordered any so I was out of luck, unfortunately. Front desk was super friendly and welcoming. I'm sure this hotel will do great once a few hickups are resolved.More</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +2416,7 @@
         <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -1763,27 +2468,37 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1799,7 +2514,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1808,22 +2523,22 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
@@ -1850,7 +2565,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1893,13 +2608,13 @@
         <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
@@ -1911,7 +2626,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1927,50 +2642,50 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
         <v>73</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" t="s">
-        <v>78</v>
-      </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1978,7 +2693,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1994,7 +2709,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2003,39 +2718,49 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -2051,7 +2776,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2060,25 +2785,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
         <v>72</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2092,7 +2817,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -2108,7 +2833,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2117,39 +2842,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -2165,7 +2900,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2174,35 +2909,41 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2226,7 +2967,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2235,31 +2976,35 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
       </c>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="n">
         <v>5</v>
       </c>
@@ -2273,7 +3018,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -2310,27 +3055,31 @@
         <v>112</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
         <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -2346,34 +3095,34 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>115</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>116</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>117</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>118</v>
       </c>
-      <c r="L13" t="s">
-        <v>119</v>
-      </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2397,7 +3146,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -2413,58 +3162,48 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
         <v>120</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>121</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>122</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>123</v>
       </c>
-      <c r="L14" t="s">
-        <v>124</v>
-      </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>125</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
@@ -2480,48 +3219,58 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" t="s">
         <v>126</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>127</v>
       </c>
-      <c r="J15" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" t="s">
-        <v>128</v>
-      </c>
-      <c r="L15" t="s">
-        <v>129</v>
-      </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
         <v>113</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
@@ -2537,25 +3286,25 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
         <v>130</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>131</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>132</v>
-      </c>
-      <c r="K16" t="s">
-        <v>133</v>
-      </c>
-      <c r="L16" t="s">
-        <v>134</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
@@ -2564,14 +3313,10 @@
         <v>113</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
         <v>5</v>
       </c>
@@ -2588,7 +3333,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
@@ -2604,25 +3349,25 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" t="s">
         <v>135</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>136</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>137</v>
-      </c>
-      <c r="K17" t="s">
-        <v>138</v>
-      </c>
-      <c r="L17" t="s">
-        <v>139</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
@@ -2631,31 +3376,21 @@
         <v>113</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18">
@@ -2671,58 +3406,48 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>140</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>141</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>142</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>143</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>144</v>
       </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>113</v>
-      </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
@@ -2759,29 +3484,23 @@
         <v>149</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
         <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2789,7 +3508,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -2826,10 +3545,14 @@
         <v>155</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>156</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
@@ -2842,7 +3565,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
@@ -2872,39 +3595,35 @@
       <c r="J21" t="s">
         <v>159</v>
       </c>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
+      <c r="K21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21" t="s">
+        <v>161</v>
+      </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
+      <c r="Y21" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2919,7 +3638,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2928,35 +3647,31 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
         <v>5</v>
       </c>
@@ -2970,7 +3685,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23">
@@ -2986,7 +3701,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2995,44 +3710,40 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J23" t="s">
-        <v>167</v>
-      </c>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="K23" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" t="s">
+        <v>173</v>
+      </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O23" t="s">
-        <v>169</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
+      <c r="Y23" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3047,7 +3758,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3056,32 +3767,38 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J24" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K24" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L24" t="s">
+        <v>180</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>174</v>
       </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>168</v>
-      </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
       </c>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -3092,7 +3809,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25">
@@ -3108,7 +3825,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3117,39 +3834,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="J25" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O25" t="s">
-        <v>125</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26">
@@ -3165,7 +3892,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3174,21 +3901,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="J26" t="s">
-        <v>182</v>
-      </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="K26" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" t="s">
+        <v>190</v>
+      </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3204,14 +3935,16 @@
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
+      <c r="Y26" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3226,7 +3959,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3235,25 +3968,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J27" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L27" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3277,7 +4010,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28">
@@ -3293,7 +4026,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3302,49 +4035,39 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="J28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L28" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="O28" t="s">
-        <v>125</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
@@ -3360,7 +4083,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3369,32 +4092,38 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="J29" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K29" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L29" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
       <c r="R29" t="n">
         <v>5</v>
       </c>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3405,7 +4134,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30">
@@ -3421,7 +4150,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3430,35 +4159,41 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J30" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K30" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L30" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
       <c r="S30" t="n">
         <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3466,7 +4201,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31">
@@ -3482,7 +4217,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3491,39 +4226,49 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="J31" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K31" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L31" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32">
@@ -3539,7 +4284,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3548,25 +4293,25 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J32" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K32" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L32" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3590,7 +4335,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33">
@@ -3606,7 +4351,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3615,25 +4360,25 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="J33" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K33" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L33" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3657,7 +4402,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34">
@@ -3673,7 +4418,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3682,44 +4427,50 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="J34" t="s">
-        <v>223</v>
-      </c>
-      <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="K34" t="s">
+        <v>230</v>
+      </c>
+      <c r="L34" t="s">
+        <v>231</v>
+      </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="O34" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
         <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
+      <c r="Y34" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3734,7 +4485,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3743,25 +4494,25 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="J35" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="K35" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="L35" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3770,10 +4521,10 @@
         <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -3782,10 +4533,14 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>238</v>
+      </c>
+      <c r="X35" t="s">
+        <v>239</v>
+      </c>
       <c r="Y35" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36">
@@ -3801,7 +4556,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3810,24 +4565,28 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="J36" t="s">
-        <v>227</v>
-      </c>
-      <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
+        <v>243</v>
+      </c>
+      <c r="K36" t="s">
+        <v>244</v>
+      </c>
+      <c r="L36" t="s">
+        <v>245</v>
+      </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
         <v>5</v>
@@ -3840,14 +4599,16 @@
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
+      <c r="Y36" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3862,7 +4623,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3871,44 +4632,36 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="J37" t="s">
-        <v>234</v>
-      </c>
-      <c r="K37" t="s"/>
-      <c r="L37" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="K37" t="s">
+        <v>249</v>
+      </c>
+      <c r="L37" t="s">
+        <v>250</v>
+      </c>
       <c r="M37" t="n">
-        <v>4</v>
-      </c>
-      <c r="N37" t="s">
-        <v>235</v>
-      </c>
-      <c r="O37" t="s">
-        <v>125</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>4</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
+      <c r="Y37" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3923,7 +4676,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3932,37 +4685,37 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="J38" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
       <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>232</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="n">
         <v>3</v>
       </c>
-      <c r="N38" t="s">
-        <v>235</v>
-      </c>
-      <c r="O38" t="s">
-        <v>59</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
       <c r="Q38" t="n">
         <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3984,7 +4737,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3993,39 +4746,49 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="J39" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="K39" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40">
@@ -4041,7 +4804,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4050,37 +4813,37 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="J40" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="K40" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="L40" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
         <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
@@ -4092,7 +4855,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41">
@@ -4108,7 +4871,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4117,49 +4880,39 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="J41" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="K41" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="L41" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="O41" t="s">
-        <v>78</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>4</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42">
@@ -4175,7 +4928,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4184,37 +4937,37 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="J42" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="O42" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
         <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4236,7 +4989,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4245,34 +4998,32 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="J43" t="s">
-        <v>260</v>
-      </c>
-      <c r="K43" t="s"/>
-      <c r="L43" t="s"/>
+        <v>275</v>
+      </c>
+      <c r="K43" t="s">
+        <v>276</v>
+      </c>
+      <c r="L43" t="s">
+        <v>277</v>
+      </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4282,7 +5033,9 @@
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
+      <c r="Y43" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4297,7 +5050,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4306,13 +5059,17 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="J44" t="s">
-        <v>264</v>
-      </c>
-      <c r="K44" t="s"/>
-      <c r="L44" t="s"/>
+        <v>280</v>
+      </c>
+      <c r="K44" t="s">
+        <v>281</v>
+      </c>
+      <c r="L44" t="s">
+        <v>282</v>
+      </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
@@ -4320,30 +5077,22 @@
         <v>265</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>4</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
+      <c r="Y44" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4358,7 +5107,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4367,16 +5116,16 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="J45" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="K45" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="L45" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
@@ -4385,7 +5134,7 @@
         <v>265</v>
       </c>
       <c r="O45" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4409,7 +5158,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46">
@@ -4425,7 +5174,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4434,50 +5183,44 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="J46" t="s">
-        <v>273</v>
-      </c>
-      <c r="K46" t="s">
-        <v>274</v>
-      </c>
-      <c r="L46" t="s">
-        <v>275</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s">
         <v>265</v>
       </c>
       <c r="O46" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
-      <c r="Y46" t="s">
-        <v>276</v>
-      </c>
+      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4492,7 +5235,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4501,50 +5244,44 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="J47" t="s">
-        <v>279</v>
-      </c>
-      <c r="K47" t="s">
-        <v>280</v>
-      </c>
-      <c r="L47" t="s">
-        <v>281</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
-      <c r="Y47" t="s">
-        <v>281</v>
-      </c>
+      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4559,7 +5296,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4568,21 +5305,25 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="J48" t="s">
-        <v>285</v>
-      </c>
-      <c r="K48" t="s"/>
-      <c r="L48" t="s"/>
+        <v>296</v>
+      </c>
+      <c r="K48" t="s">
+        <v>297</v>
+      </c>
+      <c r="L48" t="s">
+        <v>298</v>
+      </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4605,7 +5346,9 @@
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
+      <c r="Y48" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4620,7 +5363,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4629,31 +5372,31 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J49" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="K49" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="L49" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
         <v>5</v>
@@ -4671,7 +5414,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
@@ -4687,7 +5430,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4696,45 +5439,39 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="J50" t="s">
+        <v>306</v>
+      </c>
+      <c r="K50" t="s">
+        <v>307</v>
+      </c>
+      <c r="L50" t="s">
+        <v>308</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
         <v>293</v>
       </c>
-      <c r="K50" t="s">
-        <v>294</v>
-      </c>
-      <c r="L50" t="s">
-        <v>295</v>
-      </c>
-      <c r="M50" t="n">
-        <v>4</v>
-      </c>
-      <c r="N50" t="s">
-        <v>282</v>
-      </c>
       <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
+      <c r="R50" t="s"/>
       <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>3</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51">
@@ -4750,7 +5487,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4759,44 +5496,44 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="J51" t="s">
-        <v>298</v>
-      </c>
-      <c r="K51" t="s"/>
-      <c r="L51" t="s"/>
+        <v>311</v>
+      </c>
+      <c r="K51" t="s">
+        <v>312</v>
+      </c>
+      <c r="L51" t="s">
+        <v>313</v>
+      </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
       <c r="R51" t="n">
         <v>3</v>
       </c>
-      <c r="S51" t="n">
-        <v>3</v>
-      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
+      <c r="Y51" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4811,7 +5548,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -4820,37 +5557,35 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="J52" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="K52" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="L52" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P52" t="s"/>
-      <c r="Q52" t="n">
-        <v>4</v>
-      </c>
-      <c r="R52" t="s"/>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -4858,7 +5593,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53">
@@ -4874,7 +5609,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -4883,39 +5618,43 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="J53" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="K53" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="L53" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54">
@@ -4931,7 +5670,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -4940,45 +5679,39 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="J54" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="K54" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="L54" t="s">
+        <v>330</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
         <v>314</v>
       </c>
-      <c r="M54" t="n">
-        <v>4</v>
-      </c>
-      <c r="N54" t="s">
-        <v>309</v>
-      </c>
       <c r="O54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>5</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55">
@@ -4994,7 +5727,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5003,25 +5736,25 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="J55" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="K55" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="L55" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="O55" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5035,7 +5768,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56">
@@ -5051,7 +5784,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5060,21 +5793,25 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="J56" t="s">
-        <v>323</v>
-      </c>
-      <c r="K56" t="s"/>
-      <c r="L56" t="s"/>
+        <v>339</v>
+      </c>
+      <c r="K56" t="s">
+        <v>340</v>
+      </c>
+      <c r="L56" t="s">
+        <v>341</v>
+      </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="O56" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5097,7 +5834,9 @@
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
+      <c r="Y56" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5112,7 +5851,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5121,25 +5860,25 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="J57" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="K57" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="L57" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5155,7 +5894,7 @@
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5163,7 +5902,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58">
@@ -5179,7 +5918,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5188,25 +5927,25 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="J58" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="K58" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="L58" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="O58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5222,7 +5961,7 @@
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5230,7 +5969,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59">
@@ -5246,53 +5985,53 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
+        <v>353</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>354</v>
+      </c>
+      <c r="J59" t="s">
+        <v>355</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
         <v>335</v>
       </c>
-      <c r="G59" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" t="s">
-        <v>47</v>
-      </c>
-      <c r="I59" t="s">
-        <v>336</v>
-      </c>
-      <c r="J59" t="s">
-        <v>337</v>
-      </c>
-      <c r="K59" t="s">
-        <v>338</v>
-      </c>
-      <c r="L59" t="s">
-        <v>339</v>
-      </c>
-      <c r="M59" t="n">
-        <v>5</v>
-      </c>
-      <c r="N59" t="s">
-        <v>334</v>
-      </c>
       <c r="O59" t="s">
-        <v>59</v>
-      </c>
-      <c r="P59" t="s"/>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
       <c r="S59" t="n">
         <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
-      <c r="Y59" t="s">
-        <v>339</v>
-      </c>
+      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5307,7 +6046,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5316,32 +6055,32 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="J60" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="K60" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="L60" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O60" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
-      <c r="S60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
         <v>5</v>
@@ -5352,7 +6091,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61">
@@ -5368,7 +6107,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5377,41 +6116,37 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="J61" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="K61" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="L61" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O61" t="s">
-        <v>169</v>
-      </c>
-      <c r="P61" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
       <c r="R61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S61" t="n">
         <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -5419,7 +6154,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62">
@@ -5435,7 +6170,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5444,37 +6179,41 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="J62" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="K62" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="L62" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="O62" t="s">
-        <v>59</v>
-      </c>
-      <c r="P62" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
       <c r="Q62" t="n">
         <v>5</v>
       </c>
-      <c r="R62" t="s"/>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
       <c r="S62" t="n">
         <v>5</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -5482,7 +6221,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63">
@@ -5498,7 +6237,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5507,30 +6246,30 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="J63" t="s">
-        <v>358</v>
-      </c>
-      <c r="K63" t="s">
-        <v>359</v>
-      </c>
-      <c r="L63" t="s">
-        <v>360</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
       <c r="M63" t="n">
-        <v>4</v>
-      </c>
-      <c r="N63" t="s"/>
-      <c r="O63" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>335</v>
+      </c>
+      <c r="O63" t="s">
+        <v>73</v>
+      </c>
       <c r="P63" t="n">
         <v>5</v>
       </c>
       <c r="Q63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
@@ -5544,9 +6283,7 @@
       </c>
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
-      <c r="Y63" t="s">
-        <v>360</v>
-      </c>
+      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5561,7 +6298,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -5570,10 +6307,10 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="J64" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -5581,26 +6318,26 @@
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="O64" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="P64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R64" t="n">
         <v>4</v>
       </c>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -5622,7 +6359,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -5631,40 +6368,44 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="J65" t="s">
-        <v>366</v>
-      </c>
-      <c r="K65" t="s">
-        <v>367</v>
-      </c>
-      <c r="L65" t="s">
-        <v>368</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
-      </c>
-      <c r="P65" t="s"/>
-      <c r="Q65" t="s"/>
-      <c r="R65" t="s"/>
-      <c r="S65" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
       <c r="T65" t="s"/>
-      <c r="U65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
-      <c r="Y65" t="s">
-        <v>368</v>
-      </c>
+      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5679,7 +6420,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -5688,37 +6429,41 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="J66" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="K66" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="L66" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="O66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
       </c>
-      <c r="Q66" t="s"/>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
       <c r="R66" t="n">
-        <v>4</v>
-      </c>
-      <c r="S66" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -5726,7 +6471,7 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="67">
@@ -5742,7 +6487,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -5751,39 +6496,3132 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
+        <v>386</v>
+      </c>
+      <c r="J67" t="s">
+        <v>387</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
         <v>376</v>
       </c>
-      <c r="J67" t="s">
-        <v>377</v>
-      </c>
-      <c r="K67" t="s">
-        <v>378</v>
-      </c>
-      <c r="L67" t="s">
-        <v>379</v>
-      </c>
-      <c r="M67" t="n">
-        <v>5</v>
-      </c>
-      <c r="N67" t="s">
-        <v>369</v>
-      </c>
       <c r="O67" t="s">
-        <v>53</v>
-      </c>
-      <c r="P67" t="s"/>
-      <c r="Q67" t="s"/>
-      <c r="R67" t="s"/>
-      <c r="S67" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
       <c r="T67" t="s"/>
-      <c r="U67" t="s"/>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
-      <c r="Y67" t="s">
-        <v>379</v>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>388</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>389</v>
+      </c>
+      <c r="J68" t="s">
+        <v>390</v>
+      </c>
+      <c r="K68" t="s">
+        <v>391</v>
+      </c>
+      <c r="L68" t="s">
+        <v>392</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>376</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>394</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>395</v>
+      </c>
+      <c r="J69" t="s">
+        <v>396</v>
+      </c>
+      <c r="K69" t="s">
+        <v>397</v>
+      </c>
+      <c r="L69" t="s">
+        <v>398</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>376</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>399</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>400</v>
+      </c>
+      <c r="J70" t="s">
+        <v>401</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>376</v>
+      </c>
+      <c r="O70" t="s">
+        <v>73</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>402</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>403</v>
+      </c>
+      <c r="J71" t="s">
+        <v>404</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>376</v>
+      </c>
+      <c r="O71" t="s">
+        <v>73</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>405</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>406</v>
+      </c>
+      <c r="J72" t="s">
+        <v>407</v>
+      </c>
+      <c r="K72" t="s">
+        <v>408</v>
+      </c>
+      <c r="L72" t="s">
+        <v>409</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>376</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>410</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>411</v>
+      </c>
+      <c r="J73" t="s">
+        <v>412</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>376</v>
+      </c>
+      <c r="O73" t="s">
+        <v>196</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>413</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>414</v>
+      </c>
+      <c r="J74" t="s">
+        <v>415</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>416</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>417</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>418</v>
+      </c>
+      <c r="J75" t="s">
+        <v>419</v>
+      </c>
+      <c r="K75" t="s">
+        <v>420</v>
+      </c>
+      <c r="L75" t="s">
+        <v>421</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>342</v>
+      </c>
+      <c r="O75" t="s">
+        <v>73</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>422</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>423</v>
+      </c>
+      <c r="J76" t="s">
+        <v>424</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>342</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>425</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>426</v>
+      </c>
+      <c r="J77" t="s">
+        <v>427</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>342</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>428</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>429</v>
+      </c>
+      <c r="J78" t="s">
+        <v>430</v>
+      </c>
+      <c r="K78" t="s">
+        <v>431</v>
+      </c>
+      <c r="L78" t="s">
+        <v>432</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>342</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>433</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>434</v>
+      </c>
+      <c r="J79" t="s">
+        <v>435</v>
+      </c>
+      <c r="K79" t="s">
+        <v>436</v>
+      </c>
+      <c r="L79" t="s">
+        <v>437</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>342</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>439</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>440</v>
+      </c>
+      <c r="J80" t="s">
+        <v>441</v>
+      </c>
+      <c r="K80" t="s">
+        <v>442</v>
+      </c>
+      <c r="L80" t="s">
+        <v>443</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>342</v>
+      </c>
+      <c r="O80" t="s">
+        <v>73</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>444</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>445</v>
+      </c>
+      <c r="J81" t="s">
+        <v>446</v>
+      </c>
+      <c r="K81" t="s">
+        <v>447</v>
+      </c>
+      <c r="L81" t="s">
+        <v>448</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>449</v>
+      </c>
+      <c r="O81" t="s">
+        <v>73</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>450</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>451</v>
+      </c>
+      <c r="J82" t="s">
+        <v>446</v>
+      </c>
+      <c r="K82" t="s">
+        <v>452</v>
+      </c>
+      <c r="L82" t="s">
+        <v>453</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>449</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>454</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>455</v>
+      </c>
+      <c r="J83" t="s">
+        <v>456</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>449</v>
+      </c>
+      <c r="O83" t="s">
+        <v>73</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>457</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>458</v>
+      </c>
+      <c r="J84" t="s">
+        <v>459</v>
+      </c>
+      <c r="K84" t="s">
+        <v>460</v>
+      </c>
+      <c r="L84" t="s">
+        <v>461</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>449</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>462</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>463</v>
+      </c>
+      <c r="J85" t="s">
+        <v>464</v>
+      </c>
+      <c r="K85" t="s">
+        <v>465</v>
+      </c>
+      <c r="L85" t="s">
+        <v>466</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>449</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>467</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>468</v>
+      </c>
+      <c r="J86" t="s">
+        <v>469</v>
+      </c>
+      <c r="K86" t="s">
+        <v>470</v>
+      </c>
+      <c r="L86" t="s">
+        <v>471</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>449</v>
+      </c>
+      <c r="O86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>472</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>473</v>
+      </c>
+      <c r="J87" t="s">
+        <v>474</v>
+      </c>
+      <c r="K87" t="s">
+        <v>475</v>
+      </c>
+      <c r="L87" t="s">
+        <v>476</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>449</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>477</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>478</v>
+      </c>
+      <c r="J88" t="s">
+        <v>479</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s"/>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>449</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>480</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>481</v>
+      </c>
+      <c r="J89" t="s">
+        <v>482</v>
+      </c>
+      <c r="K89" t="s">
+        <v>483</v>
+      </c>
+      <c r="L89" t="s">
+        <v>484</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>449</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>485</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>486</v>
+      </c>
+      <c r="J90" t="s">
+        <v>487</v>
+      </c>
+      <c r="K90" t="s">
+        <v>488</v>
+      </c>
+      <c r="L90" t="s">
+        <v>489</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>490</v>
+      </c>
+      <c r="O90" t="s">
+        <v>102</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>492</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>493</v>
+      </c>
+      <c r="J91" t="s">
+        <v>494</v>
+      </c>
+      <c r="K91" t="s">
+        <v>495</v>
+      </c>
+      <c r="L91" t="s">
+        <v>496</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>490</v>
+      </c>
+      <c r="O91" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>497</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>498</v>
+      </c>
+      <c r="J92" t="s">
+        <v>499</v>
+      </c>
+      <c r="K92" t="s">
+        <v>500</v>
+      </c>
+      <c r="L92" t="s">
+        <v>501</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s">
+        <v>490</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>502</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>503</v>
+      </c>
+      <c r="J93" t="s">
+        <v>504</v>
+      </c>
+      <c r="K93" t="s">
+        <v>505</v>
+      </c>
+      <c r="L93" t="s">
+        <v>506</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>490</v>
+      </c>
+      <c r="O93" t="s">
+        <v>73</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>507</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>508</v>
+      </c>
+      <c r="J94" t="s">
+        <v>509</v>
+      </c>
+      <c r="K94" t="s">
+        <v>510</v>
+      </c>
+      <c r="L94" t="s">
+        <v>511</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>512</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>513</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>514</v>
+      </c>
+      <c r="J95" t="s">
+        <v>515</v>
+      </c>
+      <c r="K95" t="s">
+        <v>516</v>
+      </c>
+      <c r="L95" t="s">
+        <v>517</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>512</v>
+      </c>
+      <c r="O95" t="s">
+        <v>196</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>518</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>519</v>
+      </c>
+      <c r="J96" t="s">
+        <v>520</v>
+      </c>
+      <c r="K96" t="s">
+        <v>521</v>
+      </c>
+      <c r="L96" t="s">
+        <v>522</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>512</v>
+      </c>
+      <c r="O96" t="s">
+        <v>196</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>523</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>524</v>
+      </c>
+      <c r="J97" t="s">
+        <v>525</v>
+      </c>
+      <c r="K97" t="s"/>
+      <c r="L97" t="s"/>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>512</v>
+      </c>
+      <c r="O97" t="s">
+        <v>73</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>526</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>527</v>
+      </c>
+      <c r="J98" t="s">
+        <v>528</v>
+      </c>
+      <c r="K98" t="s">
+        <v>529</v>
+      </c>
+      <c r="L98" t="s">
+        <v>530</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>512</v>
+      </c>
+      <c r="O98" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>531</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>532</v>
+      </c>
+      <c r="J99" t="s">
+        <v>533</v>
+      </c>
+      <c r="K99" t="s">
+        <v>534</v>
+      </c>
+      <c r="L99" t="s">
+        <v>535</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>536</v>
+      </c>
+      <c r="O99" t="s">
+        <v>73</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>537</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>538</v>
+      </c>
+      <c r="J100" t="s">
+        <v>539</v>
+      </c>
+      <c r="K100" t="s"/>
+      <c r="L100" t="s"/>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>536</v>
+      </c>
+      <c r="O100" t="s">
+        <v>73</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>540</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>541</v>
+      </c>
+      <c r="J101" t="s">
+        <v>542</v>
+      </c>
+      <c r="K101" t="s">
+        <v>543</v>
+      </c>
+      <c r="L101" t="s">
+        <v>544</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>536</v>
+      </c>
+      <c r="O101" t="s">
+        <v>196</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>545</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>546</v>
+      </c>
+      <c r="J102" t="s">
+        <v>547</v>
+      </c>
+      <c r="K102" t="s">
+        <v>548</v>
+      </c>
+      <c r="L102" t="s">
+        <v>549</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>536</v>
+      </c>
+      <c r="O102" t="s">
+        <v>73</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>550</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>551</v>
+      </c>
+      <c r="J103" t="s">
+        <v>552</v>
+      </c>
+      <c r="K103" t="s">
+        <v>553</v>
+      </c>
+      <c r="L103" t="s">
+        <v>554</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>536</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>556</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>557</v>
+      </c>
+      <c r="J104" t="s">
+        <v>552</v>
+      </c>
+      <c r="K104" t="s">
+        <v>558</v>
+      </c>
+      <c r="L104" t="s">
+        <v>559</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>536</v>
+      </c>
+      <c r="O104" t="s">
+        <v>102</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>560</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>561</v>
+      </c>
+      <c r="J105" t="s">
+        <v>562</v>
+      </c>
+      <c r="K105" t="s">
+        <v>563</v>
+      </c>
+      <c r="L105" t="s">
+        <v>564</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>536</v>
+      </c>
+      <c r="O105" t="s">
+        <v>73</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>565</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>566</v>
+      </c>
+      <c r="J106" t="s">
+        <v>567</v>
+      </c>
+      <c r="K106" t="s"/>
+      <c r="L106" t="s"/>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>536</v>
+      </c>
+      <c r="O106" t="s">
+        <v>60</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>568</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>569</v>
+      </c>
+      <c r="J107" t="s">
+        <v>570</v>
+      </c>
+      <c r="K107" t="s">
+        <v>571</v>
+      </c>
+      <c r="L107" t="s">
+        <v>572</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>573</v>
+      </c>
+      <c r="O107" t="s">
+        <v>73</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>574</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>575</v>
+      </c>
+      <c r="J108" t="s">
+        <v>576</v>
+      </c>
+      <c r="K108" t="s">
+        <v>577</v>
+      </c>
+      <c r="L108" t="s">
+        <v>578</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>579</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>580</v>
+      </c>
+      <c r="J109" t="s">
+        <v>581</v>
+      </c>
+      <c r="K109" t="s"/>
+      <c r="L109" t="s"/>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>573</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>582</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>583</v>
+      </c>
+      <c r="J110" t="s">
+        <v>584</v>
+      </c>
+      <c r="K110" t="s">
+        <v>585</v>
+      </c>
+      <c r="L110" t="s">
+        <v>586</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>573</v>
+      </c>
+      <c r="O110" t="s">
+        <v>73</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>587</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>588</v>
+      </c>
+      <c r="J111" t="s">
+        <v>589</v>
+      </c>
+      <c r="K111" t="s"/>
+      <c r="L111" t="s"/>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>573</v>
+      </c>
+      <c r="O111" t="s">
+        <v>60</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>590</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>591</v>
+      </c>
+      <c r="J112" t="s">
+        <v>592</v>
+      </c>
+      <c r="K112" t="s">
+        <v>593</v>
+      </c>
+      <c r="L112" t="s">
+        <v>594</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>595</v>
+      </c>
+      <c r="O112" t="s">
+        <v>60</v>
+      </c>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>596</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>597</v>
+      </c>
+      <c r="J113" t="s">
+        <v>598</v>
+      </c>
+      <c r="K113" t="s">
+        <v>599</v>
+      </c>
+      <c r="L113" t="s">
+        <v>600</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4</v>
+      </c>
+      <c r="N113" t="s">
+        <v>573</v>
+      </c>
+      <c r="O113" t="s">
+        <v>73</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="s"/>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>4</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>601</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>602</v>
+      </c>
+      <c r="J114" t="s">
+        <v>603</v>
+      </c>
+      <c r="K114" t="s">
+        <v>604</v>
+      </c>
+      <c r="L114" t="s">
+        <v>605</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>595</v>
+      </c>
+      <c r="O114" t="s">
+        <v>60</v>
+      </c>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="s"/>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>606</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>607</v>
+      </c>
+      <c r="J115" t="s">
+        <v>603</v>
+      </c>
+      <c r="K115" t="s">
+        <v>608</v>
+      </c>
+      <c r="L115" t="s">
+        <v>609</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>595</v>
+      </c>
+      <c r="O115" t="s">
+        <v>73</v>
+      </c>
+      <c r="P115" t="s"/>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s"/>
+      <c r="U115" t="s"/>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>64773</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>610</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>611</v>
+      </c>
+      <c r="J116" t="s">
+        <v>603</v>
+      </c>
+      <c r="K116" t="s">
+        <v>612</v>
+      </c>
+      <c r="L116" t="s">
+        <v>613</v>
+      </c>
+      <c r="M116" t="n">
+        <v>4</v>
+      </c>
+      <c r="N116" t="s">
+        <v>595</v>
+      </c>
+      <c r="O116" t="s">
+        <v>60</v>
+      </c>
+      <c r="P116" t="s"/>
+      <c r="Q116" t="s"/>
+      <c r="R116" t="s"/>
+      <c r="S116" t="s"/>
+      <c r="T116" t="s"/>
+      <c r="U116" t="s"/>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
